--- a/Учет цистерн/Forms/ReportTemplates/Итог по станции.xlsx
+++ b/Учет цистерн/Forms/ReportTemplates/Итог по станции.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CisAccount\Учет цистерн\Forms\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CisAccount_Ertys\Учет цистерн\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580A777D-4A65-4183-869A-4E5802746006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD05FC76-6E38-4473-8FC1-182AB1391B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2490" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Итоговая  справка" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Итоговая справка</t>
   </si>
@@ -37,12 +37,6 @@
     <t xml:space="preserve">Из них:                                                                                   </t>
   </si>
   <si>
-    <t>на ТОО Казыгурт-Юг</t>
-  </si>
-  <si>
-    <t>С 01.12.2019 по 10.12.2019 на ТОО Казыгурт-Юг</t>
-  </si>
-  <si>
     <t>ИТОГО СУММА</t>
   </si>
   <si>
@@ -52,16 +46,16 @@
     <t>Ст. мастер</t>
   </si>
   <si>
-    <t>Ибрагим Р.С.</t>
-  </si>
-  <si>
     <t>Техник по учету в/ц</t>
   </si>
   <si>
-    <t>Абильбашарова С.Ж.</t>
-  </si>
-  <si>
     <t>Представитель</t>
+  </si>
+  <si>
+    <t>на ТОО "Ертыс Сервис"</t>
+  </si>
+  <si>
+    <t>С 01.12.2019 по 10.12.2019 на ТОО "Ертыс Сервис"</t>
   </si>
 </sst>
 </file>
@@ -460,7 +454,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:I20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -489,7 +483,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -497,7 +491,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>2</v>
@@ -531,18 +525,15 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
@@ -550,13 +541,10 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
@@ -564,10 +552,10 @@
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
